--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2023.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2023.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153478588072984</v>
+        <v>1.144801139831543</v>
       </c>
       <c r="B1">
-        <v>2.332595980741124</v>
+        <v>2.569910287857056</v>
       </c>
       <c r="C1">
-        <v>7.226166917060791</v>
+        <v>6.870341777801514</v>
       </c>
       <c r="D1">
-        <v>2.397592873210343</v>
+        <v>2.081766843795776</v>
       </c>
       <c r="E1">
-        <v>1.226793448529754</v>
+        <v>1.229485273361206</v>
       </c>
     </row>
   </sheetData>
